--- a/f1score_nab_abnormal_point_results.xlsx
+++ b/f1score_nab_abnormal_point_results.xlsx
@@ -469,11 +469,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'cluster': 22, 'training': 954, 'window': 362, 'threshold': 4.5}</t>
+          <t>{'cluster': 27, 'training': 454, 'window': 362, 'threshold': 5.0}</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20.01751204700122</v>
+        <v>21.61815041000045</v>
       </c>
     </row>
   </sheetData>

--- a/f1score_nab_abnormal_point_results.xlsx
+++ b/f1score_nab_abnormal_point_results.xlsx
@@ -469,11 +469,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'cluster': 27, 'training': 454, 'window': 362, 'threshold': 5.0}</t>
+          <t>{'cluster': 19, 'training': 1575, 'window': 362, 'threshold': 4.5}</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>21.61815041000045</v>
+        <v>21.10431646500001</v>
       </c>
     </row>
   </sheetData>

--- a/f1score_nab_abnormal_point_results.xlsx
+++ b/f1score_nab_abnormal_point_results.xlsx
@@ -469,11 +469,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'cluster': 19, 'training': 1575, 'window': 362, 'threshold': 4.5}</t>
+          <t>{'cluster': 23, 'training': 1382, 'window': 102, 'threshold': 1.0}</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>21.10431646500001</v>
+        <v>392.4906269960011</v>
       </c>
     </row>
   </sheetData>

--- a/f1score_nab_abnormal_point_results.xlsx
+++ b/f1score_nab_abnormal_point_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,19 +461,145 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>{'cluster': 23, 'training': 1382, 'window': 102, 'threshold': 1.0}</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>392.4906269960011</v>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'cluster': 27, 'training': 241, 'window': 1498, 'threshold': 8.5}</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>555.2549401360011</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/f1score_nab_abnormal_point_results.xlsx
+++ b/f1score_nab_abnormal_point_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,25 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>our_identified</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>our_Overlap_merlin</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>ourbest_param</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ourtime_taken</t>
         </is>
@@ -459,41 +464,47 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>params</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6177474402730375</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>{'cluster': 26, 'training': 1155, 'window': 362, 'threshold': 4.0}</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>16.414758656</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>{'cluster': 27, 'training': 241, 'window': 1498, 'threshold': 8.5}</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>555.2549401360011</v>
       </c>
     </row>
@@ -501,20 +512,23 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>params</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -522,20 +536,23 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>params</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -543,20 +560,23 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>params</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,20 +584,23 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>params</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -585,20 +608,23 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>params</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0</v>
       </c>
     </row>
